--- a/Time_Table.xlsx
+++ b/Time_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bekta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bekta\Documents\GitHub\SG-Praktikum-P01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D1E050-440A-4208-A598-0574C0DD2687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456EB754-515B-4F37-B5FB-DC17339C3221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,13 +107,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -130,15 +130,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEE0B4E9-C598-41CB-A141-28818CC0F912}" name="Table1" displayName="Table1" ref="A1:F90" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEE0B4E9-C598-41CB-A141-28818CC0F912}" name="Table1" displayName="Table1" ref="A1:F90" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F90" xr:uid="{FEE0B4E9-C598-41CB-A141-28818CC0F912}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{82F0D584-5317-4917-B58B-A8D7DD0B99F8}" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{EE9CE50A-5941-4269-B7CD-381770D1156C}" name="Canzer" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F5123530-83E2-486B-9C6F-C7888C7F8384}" name="Zhivko" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{03FC464C-A74D-4BAE-BF26-65E7EE86A80E}" name="Toluhan" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{2BF79246-4331-4FB5-8F28-A2AC70AA6C3B}" name="Wie Jie" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{74F299ED-1DD1-432F-B67C-E0FAD599C6B4}" name="Rishabh" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{82F0D584-5317-4917-B58B-A8D7DD0B99F8}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{EE9CE50A-5941-4269-B7CD-381770D1156C}" name="Canzer" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{F5123530-83E2-486B-9C6F-C7888C7F8384}" name="Zhivko" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{03FC464C-A74D-4BAE-BF26-65E7EE86A80E}" name="Toluhan" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{2BF79246-4331-4FB5-8F28-A2AC70AA6C3B}" name="Wie Jie" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{74F299ED-1DD1-432F-B67C-E0FAD599C6B4}" name="Rishabh" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F90"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,11 +597,21 @@
       <c r="A17" s="2">
         <v>45229</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="B17" s="1">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1">
+        <v>55</v>
+      </c>
+      <c r="D17" s="1">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
